--- a/config_12.29/game_module_config_cjj.xlsx
+++ b/config_12.29/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4462,10 +4462,10 @@
   <dimension ref="A1:I304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C299" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C263" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A305" sqref="A305"/>
+      <selection pane="bottomRight" activeCell="G270" sqref="G270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11321,13 +11321,13 @@
         <v>807</v>
       </c>
       <c r="E270" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F270" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G270" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H270" s="17"/>
       <c r="I270" s="21" t="s">

--- a/config_12.29/game_module_config_cjj.xlsx
+++ b/config_12.29/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="928">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3222,43 +3222,246 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>龙虾兑换</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_025_LXDHManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_025_lxdh</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_025_xlxphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小龙虾排行榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_025_XLXPHBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_czlb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超值礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GiftCZLBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_fcm</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>防沉迷</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSFCMManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_009_yk_gz</t>
+  </si>
+  <si>
+    <t>Act_009_YKGZManager</t>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动：贵族月卡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_011_yueka_new</t>
+  </si>
+  <si>
+    <t>新月卡</t>
+  </si>
+  <si>
+    <t>Sys_011_YuekaManager</t>
+  </si>
+  <si>
+    <t>act_026_bblb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表白礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_026_BBLBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>活动</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>龙虾兑换</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_025_LXDHManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_025_lxdh</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_025_xlxphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>小龙虾排行榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_025_XLXPHBManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_czlb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>超值礼包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GiftCZLBManager</t>
+    <t>act_026_xrcdj</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人抽大奖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_026_XRCDJManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_026_zabd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>真爱榜单</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_026_ZABDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_026_lmlh</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_026_LMLHManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪漫礼盒</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_026_sgxxlyd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_026_SGXXLYDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐引导</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>已关闭</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>推广系统</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTGXTManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_tgxt</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_027_jqshl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金秋送豪礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_027_mfflq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费福利券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_027_MFFLQManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_027_JQSHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_028_mfhf</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_028_MFHFManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费话费</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_028_xycd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运彩蛋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_028_XYCDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼奖池</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_ljyjcfk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPL_LJYJCFKManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏累计赢金抽福卡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼任务系统</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYTaskManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3266,54 +3469,268 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>sys_fcm</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>防沉迷</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSFCMManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_009_yk_gz</t>
-  </si>
-  <si>
-    <t>Act_009_YKGZManager</t>
+    <t>欢乐敲金蛋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_029_hlqjd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_029_HLQJDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_030_hd_zjm</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_030_cwlb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_030_CWLBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_031_gqflManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆快乐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_031_gqkl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_031_WXHHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_030_GQFDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_031_wxhhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_031_gqfl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_031_gqfd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>五星换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆福袋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星掉落脚本</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by3d_hd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY3DHDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>活动：贵族月卡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_011_yueka_new</t>
-  </si>
-  <si>
-    <t>新月卡</t>
-  </si>
-  <si>
-    <t>Sys_011_YuekaManager</t>
-  </si>
-  <si>
-    <t>act_026_bblb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>表白礼包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_026_BBLBManager</t>
+    <t>act_031_gqkl_ani</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_031_GQKLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_task</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金鸡送礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_jjsl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSJJSLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_xyxyd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>大额福利券（跳转小游戏入口）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYXyxydManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_033_vip1ztlb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP1直通礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_033_VIP1ZTLBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_033_xrzxlb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>XRZXGiftManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人专享</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_034_ldfd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>立冬福袋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_034_LDFDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by3d_shtx</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海探险</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY3DSHTXManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_035_ybwl</t>
+  </si>
+  <si>
+    <t>一本万利</t>
+  </si>
+  <si>
+    <t>Act_035_YBWLManager</t>
+  </si>
+  <si>
+    <t>永久</t>
+  </si>
+  <si>
+    <t>act_035_jhs</t>
+  </si>
+  <si>
+    <t>聚划算</t>
+  </si>
+  <si>
+    <t>Act_035_JHSManager</t>
+  </si>
+  <si>
+    <t>感恩礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_036_hjhhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>火鸡换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_036_HJHHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_036_hjhhl_drop_ani</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>火鸡掉落需求</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_036_HJHHLDROPManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_036_gelb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_036_GELBManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3321,151 +3738,69 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_026_xrcdj</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人抽大奖</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_026_XRCDJManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_026_zabd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>真爱榜单</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_026_ZABDManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_026_lmlh</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_026_LMLHManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>浪漫礼盒</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_026_sgxxlyd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_026_SGXXLYDManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>水果消消乐引导</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>已关闭</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>推广系统</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTGXTManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_tgxt</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_027_jqshl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金秋送豪礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_027_mfflq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费福利券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_027_MFFLQManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_027_JQSHLManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_028_mfhf</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_028_MFHFManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费话费</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_028_xycd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运彩蛋</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_028_XYCDManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼奖池</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_ljyjcfk</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPL_LJYJCFKManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏累计赢金抽福卡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕鱼任务系统</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>BYTaskManager</t>
+    <t>等级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12dhhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二兑换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_038_S12DHHLManager</t>
+  </si>
+  <si>
+    <t>12月14日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12lhsjb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二礼盒收集榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_038_S12LHSJBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二页签</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月14日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12lh_drop_ani</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双12礼盒掉落</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_038_S12LHDROPManager</t>
+  </si>
+  <si>
+    <t>act_038_by_and_cjj_conduct</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_038_BY_AND_CJJ_CONDUCTManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3473,408 +3808,74 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>act_039_jzhhl</t>
+  </si>
+  <si>
+    <t>Act_039_JZHHLManager</t>
+  </si>
+  <si>
+    <t>act_039_jzsjb</t>
+  </si>
+  <si>
+    <t>Act_039_JZSJBManager</t>
+  </si>
+  <si>
+    <t>cjj互导</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_ty_by_drop</t>
+  </si>
+  <si>
+    <t>捕鱼通用掉落活动</t>
+  </si>
+  <si>
+    <t>Act_039_TYBYDROPManager</t>
+  </si>
+  <si>
+    <t>act_040_by_and_cjj_to_ddz_conduct</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏互导向斗地主</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_040_BY_AND_CJJ_TO_DDZ_CONDUCTManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>欢乐敲金蛋</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_029_hlqjd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_029_HLQJDManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_030_hd_zjm</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_030_cwlb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_030_CWLBManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_031_gqflManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>国庆快乐</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_031_gqkl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_031_WXHHLManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_030_GQFDManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_031_wxhhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_031_gqfl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_031_gqfd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>五星换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>国庆福袋</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>国庆福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>星星掉落脚本</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>by3d_hd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>核弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>BY3DHDManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>永久</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_031_gqkl_ani</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_031_GQKLManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_task</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金鸡送礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_jjsl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSJJSLManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>永久</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_xyxyd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>大额福利券（跳转小游戏入口）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>BYXyxydManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_033_vip1ztlb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP1直通礼包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_033_VIP1ZTLBManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_033_xrzxlb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>XRZXGiftManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人专享</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_034_ldfd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>立冬福袋</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_034_LDFDManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>by3d_shtx</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海探险</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>BY3DSHTXManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>永久</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_035_ybwl</t>
-  </si>
-  <si>
-    <t>一本万利</t>
-  </si>
-  <si>
-    <t>Act_035_YBWLManager</t>
-  </si>
-  <si>
-    <t>永久</t>
-  </si>
-  <si>
-    <t>act_035_jhs</t>
-  </si>
-  <si>
-    <t>聚划算</t>
-  </si>
-  <si>
-    <t>Act_035_JHSManager</t>
-  </si>
-  <si>
-    <t>感恩礼包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_036_hjhhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>火鸡换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_036_HJHHLManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_036_hjhhl_drop_ani</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>火鸡掉落需求</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_036_HJHHLDROPManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_036_gelb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_036_GELBManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_038_s12dhhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十二兑换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_038_S12DHHLManager</t>
-  </si>
-  <si>
-    <t>12月14日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_038_s12lhsjb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十二礼盒收集榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_038_S12LHSJBManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十二</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_038_s12</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十二页签</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>12月14日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_038_s12lh_drop_ani</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双12礼盒掉落</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_038_S12LHDROPManager</t>
-  </si>
-  <si>
-    <t>act_038_by_and_cjj_conduct</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_038_BY_AND_CJJ_CONDUCTManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>永久</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_039_jzhhl</t>
-  </si>
-  <si>
-    <t>Act_039_JZHHLManager</t>
-  </si>
-  <si>
-    <t>act_039_jzsjb</t>
-  </si>
-  <si>
-    <t>饺子收集榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_039_JZSJBManager</t>
-  </si>
-  <si>
-    <t>饺子换好礼→圣诞福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>12月21</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>日23:59:59</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjj互导</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_039_ty_by_drop</t>
-  </si>
-  <si>
-    <t>捕鱼通用掉落活动</t>
-  </si>
-  <si>
-    <t>Act_039_TYBYDROPManager</t>
-  </si>
-  <si>
-    <t>act_040_by_and_cjj_to_ddz_conduct</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏互导向斗地主</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_040_BY_AND_CJJ_TO_DDZ_CONDUCTManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>永久</t>
+    <t xml:space="preserve">act_040_ydfl </t>
+  </si>
+  <si>
+    <t>元旦福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_013_DLFLManager</t>
+  </si>
+  <si>
+    <t>1月4日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺子换好礼→圣诞福利→元旦好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月4日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺子收集榜 → 金元宝榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月4日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3959,7 +3960,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4008,6 +4009,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4040,7 +4047,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4176,10 +4183,19 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4459,13 +4475,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I304"/>
+  <dimension ref="A1:I305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C263" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D290" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G270" sqref="G270"/>
+      <selection pane="bottomRight" activeCell="E307" sqref="E307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5157,7 +5173,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -10316,7 +10332,7 @@
         <v>633</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>634</v>
@@ -10431,7 +10447,7 @@
         <v>667</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>668</v>
@@ -10969,30 +10985,30 @@
         <v>753</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A257" s="19">
+    <row r="257" spans="1:9" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A257" s="49">
         <v>256</v>
       </c>
-      <c r="B257" s="18" t="s">
+      <c r="B257" s="47" t="s">
         <v>754</v>
       </c>
-      <c r="C257" s="18" t="s">
+      <c r="C257" s="47" t="s">
         <v>755</v>
       </c>
-      <c r="D257" s="18" t="s">
+      <c r="D257" s="47" t="s">
         <v>756</v>
       </c>
-      <c r="E257" s="20">
-        <v>0</v>
-      </c>
-      <c r="F257" s="20">
-        <v>1</v>
-      </c>
-      <c r="G257" s="20">
-        <v>1</v>
-      </c>
-      <c r="I257" s="18" t="s">
-        <v>757</v>
+      <c r="E257" s="48">
+        <v>1</v>
+      </c>
+      <c r="F257" s="48">
+        <v>1</v>
+      </c>
+      <c r="G257" s="48">
+        <v>1</v>
+      </c>
+      <c r="I257" s="47" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11000,14 +11016,14 @@
         <v>257</v>
       </c>
       <c r="B258" s="18" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C258" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="D258" s="18" t="s">
         <v>759</v>
       </c>
-      <c r="D258" s="18" t="s">
-        <v>760</v>
-      </c>
       <c r="E258" s="20">
         <v>0</v>
       </c>
@@ -11018,7 +11034,7 @@
         <v>1</v>
       </c>
       <c r="I258" s="18" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="259" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11026,14 +11042,14 @@
         <v>258</v>
       </c>
       <c r="B259" s="18" t="s">
+        <v>761</v>
+      </c>
+      <c r="C259" s="18" t="s">
         <v>762</v>
       </c>
-      <c r="C259" s="18" t="s">
+      <c r="D259" s="18" t="s">
         <v>763</v>
       </c>
-      <c r="D259" s="18" t="s">
-        <v>764</v>
-      </c>
       <c r="E259" s="20">
         <v>0</v>
       </c>
@@ -11044,7 +11060,7 @@
         <v>1</v>
       </c>
       <c r="I259" s="18" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="260" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11052,25 +11068,25 @@
         <v>259</v>
       </c>
       <c r="B260" s="18" t="s">
+        <v>764</v>
+      </c>
+      <c r="C260" s="18" t="s">
         <v>765</v>
       </c>
-      <c r="C260" s="18" t="s">
+      <c r="D260" s="18" t="s">
         <v>766</v>
       </c>
-      <c r="D260" s="18" t="s">
+      <c r="E260" s="20">
+        <v>1</v>
+      </c>
+      <c r="F260" s="20">
+        <v>1</v>
+      </c>
+      <c r="G260" s="20">
+        <v>1</v>
+      </c>
+      <c r="I260" s="18" t="s">
         <v>767</v>
-      </c>
-      <c r="E260" s="20">
-        <v>1</v>
-      </c>
-      <c r="F260" s="20">
-        <v>1</v>
-      </c>
-      <c r="G260" s="20">
-        <v>1</v>
-      </c>
-      <c r="I260" s="18" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="261" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11078,25 +11094,25 @@
         <v>260</v>
       </c>
       <c r="B261" s="18" t="s">
+        <v>768</v>
+      </c>
+      <c r="C261" s="18" t="s">
         <v>769</v>
       </c>
-      <c r="C261" s="18" t="s">
+      <c r="D261" s="18" t="s">
         <v>770</v>
       </c>
-      <c r="D261" s="18" t="s">
+      <c r="E261" s="20">
+        <v>0</v>
+      </c>
+      <c r="F261" s="20">
+        <v>1</v>
+      </c>
+      <c r="G261" s="20">
+        <v>1</v>
+      </c>
+      <c r="I261" s="18" t="s">
         <v>771</v>
-      </c>
-      <c r="E261" s="20">
-        <v>0</v>
-      </c>
-      <c r="F261" s="20">
-        <v>1</v>
-      </c>
-      <c r="G261" s="20">
-        <v>1</v>
-      </c>
-      <c r="I261" s="18" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11104,25 +11120,25 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
+        <v>772</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="D262" t="s">
         <v>773</v>
       </c>
-      <c r="C262" s="9" t="s">
-        <v>776</v>
-      </c>
-      <c r="D262" t="s">
+      <c r="E262" s="5">
+        <v>1</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+      <c r="G262">
+        <v>1</v>
+      </c>
+      <c r="I262" s="12" t="s">
         <v>774</v>
-      </c>
-      <c r="E262" s="5">
-        <v>1</v>
-      </c>
-      <c r="F262">
-        <v>1</v>
-      </c>
-      <c r="G262">
-        <v>1</v>
-      </c>
-      <c r="I262" s="12" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11130,13 +11146,13 @@
         <v>262</v>
       </c>
       <c r="B263" s="18" t="s">
+        <v>776</v>
+      </c>
+      <c r="C263" s="9" t="s">
         <v>777</v>
       </c>
-      <c r="C263" s="9" t="s">
+      <c r="D263" s="18" t="s">
         <v>778</v>
-      </c>
-      <c r="D263" s="18" t="s">
-        <v>779</v>
       </c>
       <c r="E263">
         <v>1</v>
@@ -11156,25 +11172,25 @@
         <v>263</v>
       </c>
       <c r="B264" s="18" t="s">
+        <v>779</v>
+      </c>
+      <c r="C264" s="18" t="s">
         <v>780</v>
       </c>
-      <c r="C264" s="18" t="s">
+      <c r="D264" s="18" t="s">
         <v>781</v>
       </c>
-      <c r="D264" s="18" t="s">
+      <c r="E264" s="20">
+        <v>0</v>
+      </c>
+      <c r="F264" s="20">
+        <v>0</v>
+      </c>
+      <c r="G264" s="20">
+        <v>0</v>
+      </c>
+      <c r="I264" s="18" t="s">
         <v>782</v>
-      </c>
-      <c r="E264" s="20">
-        <v>0</v>
-      </c>
-      <c r="F264" s="20">
-        <v>0</v>
-      </c>
-      <c r="G264" s="20">
-        <v>0</v>
-      </c>
-      <c r="I264" s="18" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="265" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11182,13 +11198,13 @@
         <v>264</v>
       </c>
       <c r="B265" s="18" t="s">
+        <v>783</v>
+      </c>
+      <c r="C265" s="18" t="s">
         <v>784</v>
       </c>
-      <c r="C265" s="18" t="s">
+      <c r="D265" s="18" t="s">
         <v>785</v>
-      </c>
-      <c r="D265" s="18" t="s">
-        <v>786</v>
       </c>
       <c r="E265" s="20">
         <v>0</v>
@@ -11208,25 +11224,25 @@
         <v>265</v>
       </c>
       <c r="B266" s="18" t="s">
+        <v>786</v>
+      </c>
+      <c r="C266" s="18" t="s">
         <v>787</v>
       </c>
-      <c r="C266" s="18" t="s">
+      <c r="D266" s="18" t="s">
         <v>788</v>
       </c>
-      <c r="D266" s="18" t="s">
+      <c r="E266" s="20">
+        <v>0</v>
+      </c>
+      <c r="F266" s="20">
+        <v>0</v>
+      </c>
+      <c r="G266" s="20">
+        <v>0</v>
+      </c>
+      <c r="I266" s="20" t="s">
         <v>789</v>
-      </c>
-      <c r="E266" s="20">
-        <v>0</v>
-      </c>
-      <c r="F266" s="20">
-        <v>0</v>
-      </c>
-      <c r="G266" s="20">
-        <v>0</v>
-      </c>
-      <c r="I266" s="20" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="267" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11234,25 +11250,25 @@
         <v>266</v>
       </c>
       <c r="B267" s="18" t="s">
+        <v>790</v>
+      </c>
+      <c r="C267" s="18" t="s">
+        <v>792</v>
+      </c>
+      <c r="D267" s="23" t="s">
         <v>791</v>
       </c>
-      <c r="C267" s="18" t="s">
+      <c r="E267" s="20">
+        <v>0</v>
+      </c>
+      <c r="F267" s="20">
+        <v>0</v>
+      </c>
+      <c r="G267" s="20">
+        <v>0</v>
+      </c>
+      <c r="I267" s="24" t="s">
         <v>793</v>
-      </c>
-      <c r="D267" s="23" t="s">
-        <v>792</v>
-      </c>
-      <c r="E267" s="20">
-        <v>0</v>
-      </c>
-      <c r="F267" s="20">
-        <v>0</v>
-      </c>
-      <c r="G267" s="20">
-        <v>0</v>
-      </c>
-      <c r="I267" s="24" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="268" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11260,13 +11276,13 @@
         <v>267</v>
       </c>
       <c r="B268" s="18" t="s">
+        <v>794</v>
+      </c>
+      <c r="C268" s="18" t="s">
+        <v>796</v>
+      </c>
+      <c r="D268" s="23" t="s">
         <v>795</v>
-      </c>
-      <c r="C268" s="18" t="s">
-        <v>797</v>
-      </c>
-      <c r="D268" s="23" t="s">
-        <v>796</v>
       </c>
       <c r="E268" s="20">
         <v>0</v>
@@ -11286,13 +11302,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="18" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C269" s="18" t="s">
+        <v>798</v>
+      </c>
+      <c r="D269" s="23" t="s">
         <v>799</v>
-      </c>
-      <c r="D269" s="23" t="s">
-        <v>800</v>
       </c>
       <c r="E269" s="20">
         <v>0</v>
@@ -11312,13 +11328,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="16" t="s">
+        <v>801</v>
+      </c>
+      <c r="C270" s="16" t="s">
         <v>802</v>
       </c>
-      <c r="C270" s="16" t="s">
-        <v>803</v>
-      </c>
       <c r="D270" s="22" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E270" s="17">
         <v>0</v>
@@ -11339,13 +11355,13 @@
         <v>270</v>
       </c>
       <c r="B271" s="16" t="s">
+        <v>803</v>
+      </c>
+      <c r="C271" s="16" t="s">
         <v>804</v>
       </c>
-      <c r="C271" s="16" t="s">
+      <c r="D271" s="22" t="s">
         <v>805</v>
-      </c>
-      <c r="D271" s="22" t="s">
-        <v>806</v>
       </c>
       <c r="E271" s="17">
         <v>1</v>
@@ -11366,25 +11382,25 @@
         <v>271</v>
       </c>
       <c r="B272" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="C272" s="18" t="s">
+        <v>809</v>
+      </c>
+      <c r="D272" s="23" t="s">
         <v>808</v>
       </c>
-      <c r="C272" s="18" t="s">
+      <c r="E272" s="20">
+        <v>1</v>
+      </c>
+      <c r="F272" s="20">
+        <v>1</v>
+      </c>
+      <c r="G272" s="20">
+        <v>1</v>
+      </c>
+      <c r="I272" s="24" t="s">
         <v>810</v>
-      </c>
-      <c r="D272" s="23" t="s">
-        <v>809</v>
-      </c>
-      <c r="E272" s="20">
-        <v>1</v>
-      </c>
-      <c r="F272" s="20">
-        <v>1</v>
-      </c>
-      <c r="G272" s="20">
-        <v>1</v>
-      </c>
-      <c r="I272" s="24" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="273" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11392,14 +11408,14 @@
         <v>272</v>
       </c>
       <c r="B273" s="18" t="s">
+        <v>811</v>
+      </c>
+      <c r="C273" s="18" t="s">
         <v>812</v>
       </c>
-      <c r="C273" s="18" t="s">
+      <c r="D273" s="23" t="s">
         <v>813</v>
       </c>
-      <c r="D273" s="23" t="s">
-        <v>814</v>
-      </c>
       <c r="E273" s="20">
         <v>1</v>
       </c>
@@ -11410,7 +11426,7 @@
         <v>1</v>
       </c>
       <c r="I273" s="24" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="274" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11418,14 +11434,14 @@
         <v>273</v>
       </c>
       <c r="B274" s="18" t="s">
+        <v>815</v>
+      </c>
+      <c r="C274" s="18" t="s">
+        <v>817</v>
+      </c>
+      <c r="D274" s="23" t="s">
         <v>816</v>
       </c>
-      <c r="C274" s="18" t="s">
-        <v>818</v>
-      </c>
-      <c r="D274" s="23" t="s">
-        <v>817</v>
-      </c>
       <c r="E274">
         <v>1</v>
       </c>
@@ -11436,7 +11452,7 @@
         <v>1</v>
       </c>
       <c r="I274" s="24" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="275" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11444,14 +11460,14 @@
         <v>274</v>
       </c>
       <c r="B275" s="18" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C275" s="18" t="s">
+        <v>818</v>
+      </c>
+      <c r="D275" s="23" t="s">
         <v>819</v>
       </c>
-      <c r="D275" s="23" t="s">
-        <v>820</v>
-      </c>
       <c r="E275">
         <v>0</v>
       </c>
@@ -11462,7 +11478,7 @@
         <v>0</v>
       </c>
       <c r="I275" s="24" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11470,25 +11486,25 @@
         <v>275</v>
       </c>
       <c r="B276" s="32" t="s">
+        <v>823</v>
+      </c>
+      <c r="C276" s="32" t="s">
+        <v>822</v>
+      </c>
+      <c r="D276" s="45" t="s">
         <v>824</v>
       </c>
-      <c r="C276" s="32" t="s">
-        <v>823</v>
-      </c>
-      <c r="D276" s="46" t="s">
+      <c r="E276" s="33">
+        <v>1</v>
+      </c>
+      <c r="F276" s="33">
+        <v>1</v>
+      </c>
+      <c r="G276" s="33">
+        <v>1</v>
+      </c>
+      <c r="I276" s="34" t="s">
         <v>825</v>
-      </c>
-      <c r="E276" s="33">
-        <v>1</v>
-      </c>
-      <c r="F276" s="33">
-        <v>1</v>
-      </c>
-      <c r="G276" s="33">
-        <v>1</v>
-      </c>
-      <c r="I276" s="34" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="277" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11496,22 +11512,22 @@
         <v>276</v>
       </c>
       <c r="B277" s="18" t="s">
+        <v>826</v>
+      </c>
+      <c r="C277" s="18" t="s">
         <v>827</v>
       </c>
-      <c r="C277" s="18" t="s">
+      <c r="E277">
+        <v>1</v>
+      </c>
+      <c r="F277">
+        <v>1</v>
+      </c>
+      <c r="G277">
+        <v>1</v>
+      </c>
+      <c r="I277" s="24" t="s">
         <v>828</v>
-      </c>
-      <c r="E277">
-        <v>1</v>
-      </c>
-      <c r="F277">
-        <v>1</v>
-      </c>
-      <c r="G277">
-        <v>1</v>
-      </c>
-      <c r="I277" s="24" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="278" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11519,25 +11535,25 @@
         <v>277</v>
       </c>
       <c r="B278" s="36" t="s">
+        <v>829</v>
+      </c>
+      <c r="C278" s="36" t="s">
+        <v>898</v>
+      </c>
+      <c r="D278" s="37" t="s">
         <v>830</v>
       </c>
-      <c r="C278" s="36" t="s">
-        <v>899</v>
-      </c>
-      <c r="D278" s="37" t="s">
+      <c r="E278" s="38">
+        <v>1</v>
+      </c>
+      <c r="F278" s="38">
+        <v>1</v>
+      </c>
+      <c r="G278" s="38">
+        <v>1</v>
+      </c>
+      <c r="I278" s="39" t="s">
         <v>831</v>
-      </c>
-      <c r="E278" s="38">
-        <v>1</v>
-      </c>
-      <c r="F278" s="38">
-        <v>1</v>
-      </c>
-      <c r="G278" s="38">
-        <v>1</v>
-      </c>
-      <c r="I278" s="39" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11545,13 +11561,13 @@
         <v>278</v>
       </c>
       <c r="B279" s="18" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C279" s="18" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D279" s="23" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -11563,7 +11579,7 @@
         <v>0</v>
       </c>
       <c r="I279" s="24" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11571,22 +11587,22 @@
         <v>279</v>
       </c>
       <c r="B280" s="18" t="s">
+        <v>834</v>
+      </c>
+      <c r="C280" s="18" t="s">
+        <v>833</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="I280" s="24" t="s">
         <v>835</v>
-      </c>
-      <c r="C280" s="18" t="s">
-        <v>834</v>
-      </c>
-      <c r="E280">
-        <v>0</v>
-      </c>
-      <c r="F280">
-        <v>0</v>
-      </c>
-      <c r="G280">
-        <v>0</v>
-      </c>
-      <c r="I280" s="24" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11594,13 +11610,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="18" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C281" s="18" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D281" s="23" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -11612,7 +11628,7 @@
         <v>0</v>
       </c>
       <c r="I281" s="24" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11620,13 +11636,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="18" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C282" s="18" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D282" s="23" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -11638,7 +11654,7 @@
         <v>0</v>
       </c>
       <c r="I282" s="24" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11646,25 +11662,25 @@
         <v>282</v>
       </c>
       <c r="B283" s="18" t="s">
+        <v>850</v>
+      </c>
+      <c r="C283" s="18" t="s">
+        <v>844</v>
+      </c>
+      <c r="D283" s="23" t="s">
         <v>851</v>
       </c>
-      <c r="C283" s="18" t="s">
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="I283" s="24" t="s">
         <v>845</v>
-      </c>
-      <c r="D283" s="23" t="s">
-        <v>852</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283">
-        <v>0</v>
-      </c>
-      <c r="G283">
-        <v>0</v>
-      </c>
-      <c r="I283" s="24" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="284" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11672,25 +11688,25 @@
         <v>283</v>
       </c>
       <c r="B284" s="25" t="s">
+        <v>846</v>
+      </c>
+      <c r="C284" s="18" t="s">
         <v>847</v>
       </c>
-      <c r="C284" s="18" t="s">
+      <c r="D284" s="23" t="s">
         <v>848</v>
       </c>
-      <c r="D284" s="23" t="s">
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <v>1</v>
+      </c>
+      <c r="G284">
+        <v>1</v>
+      </c>
+      <c r="I284" s="24" t="s">
         <v>849</v>
-      </c>
-      <c r="E284">
-        <v>0</v>
-      </c>
-      <c r="F284">
-        <v>1</v>
-      </c>
-      <c r="G284">
-        <v>1</v>
-      </c>
-      <c r="I284" s="24" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="285" spans="1:9" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11698,13 +11714,13 @@
         <v>284</v>
       </c>
       <c r="B285" s="27" t="s">
+        <v>857</v>
+      </c>
+      <c r="C285" s="28" t="s">
         <v>858</v>
       </c>
-      <c r="C285" s="28" t="s">
+      <c r="D285" s="27" t="s">
         <v>859</v>
-      </c>
-      <c r="D285" s="27" t="s">
-        <v>860</v>
       </c>
       <c r="E285" s="29">
         <v>1</v>
@@ -11724,25 +11740,25 @@
         <v>285</v>
       </c>
       <c r="B286" s="18" t="s">
+        <v>854</v>
+      </c>
+      <c r="C286" s="18" t="s">
+        <v>853</v>
+      </c>
+      <c r="D286" s="23" t="s">
         <v>855</v>
       </c>
-      <c r="C286" s="18" t="s">
-        <v>854</v>
-      </c>
-      <c r="D286" s="23" t="s">
+      <c r="E286">
+        <v>1</v>
+      </c>
+      <c r="F286">
+        <v>1</v>
+      </c>
+      <c r="G286">
+        <v>1</v>
+      </c>
+      <c r="I286" s="24" t="s">
         <v>856</v>
-      </c>
-      <c r="E286">
-        <v>1</v>
-      </c>
-      <c r="F286">
-        <v>1</v>
-      </c>
-      <c r="G286">
-        <v>1</v>
-      </c>
-      <c r="I286" s="24" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="287" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11750,13 +11766,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="18" t="s">
+        <v>860</v>
+      </c>
+      <c r="C287" s="18" t="s">
         <v>861</v>
       </c>
-      <c r="C287" s="18" t="s">
+      <c r="D287" s="23" t="s">
         <v>862</v>
-      </c>
-      <c r="D287" s="23" t="s">
-        <v>863</v>
       </c>
       <c r="E287">
         <v>1</v>
@@ -11776,13 +11792,13 @@
         <v>287</v>
       </c>
       <c r="B288" s="18" t="s">
+        <v>863</v>
+      </c>
+      <c r="C288" s="18" t="s">
+        <v>865</v>
+      </c>
+      <c r="D288" s="23" t="s">
         <v>864</v>
-      </c>
-      <c r="C288" s="18" t="s">
-        <v>866</v>
-      </c>
-      <c r="D288" s="23" t="s">
-        <v>865</v>
       </c>
       <c r="E288">
         <v>0</v>
@@ -11802,13 +11818,13 @@
         <v>288</v>
       </c>
       <c r="B289" s="32" t="s">
+        <v>866</v>
+      </c>
+      <c r="C289" s="32" t="s">
         <v>867</v>
       </c>
-      <c r="C289" s="32" t="s">
+      <c r="D289" s="32" t="s">
         <v>868</v>
-      </c>
-      <c r="D289" s="32" t="s">
-        <v>869</v>
       </c>
       <c r="E289" s="33">
         <v>0</v>
@@ -11828,25 +11844,25 @@
         <v>289</v>
       </c>
       <c r="B290" s="18" t="s">
+        <v>869</v>
+      </c>
+      <c r="C290" s="18" t="s">
         <v>870</v>
       </c>
-      <c r="C290" s="18" t="s">
+      <c r="D290" s="23" t="s">
         <v>871</v>
       </c>
-      <c r="D290" s="23" t="s">
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="I290" s="24" t="s">
         <v>872</v>
-      </c>
-      <c r="E290">
-        <v>0</v>
-      </c>
-      <c r="F290">
-        <v>0</v>
-      </c>
-      <c r="G290">
-        <v>0</v>
-      </c>
-      <c r="I290" s="24" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="291" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11854,25 +11870,25 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
+        <v>873</v>
+      </c>
+      <c r="C291" t="s">
         <v>874</v>
       </c>
-      <c r="C291" t="s">
+      <c r="D291" t="s">
         <v>875</v>
       </c>
-      <c r="D291" t="s">
+      <c r="E291">
+        <v>1</v>
+      </c>
+      <c r="F291">
+        <v>1</v>
+      </c>
+      <c r="G291">
+        <v>1</v>
+      </c>
+      <c r="I291" t="s">
         <v>876</v>
-      </c>
-      <c r="E291">
-        <v>1</v>
-      </c>
-      <c r="F291">
-        <v>1</v>
-      </c>
-      <c r="G291">
-        <v>1</v>
-      </c>
-      <c r="I291" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="292" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11880,14 +11896,14 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
+        <v>877</v>
+      </c>
+      <c r="C292" t="s">
         <v>878</v>
       </c>
-      <c r="C292" t="s">
+      <c r="D292" t="s">
         <v>879</v>
       </c>
-      <c r="D292" t="s">
-        <v>880</v>
-      </c>
       <c r="E292">
         <v>1</v>
       </c>
@@ -11898,7 +11914,7 @@
         <v>1</v>
       </c>
       <c r="I292" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="293" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11906,13 +11922,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="25" t="s">
+        <v>881</v>
+      </c>
+      <c r="C293" s="18" t="s">
         <v>882</v>
       </c>
-      <c r="C293" s="18" t="s">
+      <c r="D293" s="25" t="s">
         <v>883</v>
-      </c>
-      <c r="D293" s="25" t="s">
-        <v>884</v>
       </c>
       <c r="E293">
         <v>1</v>
@@ -11932,13 +11948,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="25" t="s">
+        <v>884</v>
+      </c>
+      <c r="C294" s="18" t="s">
         <v>885</v>
       </c>
-      <c r="C294" s="18" t="s">
+      <c r="D294" s="25" t="s">
         <v>886</v>
-      </c>
-      <c r="D294" s="25" t="s">
-        <v>887</v>
       </c>
       <c r="E294">
         <v>1</v>
@@ -11958,13 +11974,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="25" t="s">
+        <v>887</v>
+      </c>
+      <c r="C295" s="18" t="s">
+        <v>880</v>
+      </c>
+      <c r="D295" s="25" t="s">
         <v>888</v>
-      </c>
-      <c r="C295" s="18" t="s">
-        <v>881</v>
-      </c>
-      <c r="D295" s="25" t="s">
-        <v>889</v>
       </c>
       <c r="E295">
         <v>1</v>
@@ -11984,25 +12000,25 @@
         <v>295</v>
       </c>
       <c r="B296" s="40" t="s">
+        <v>891</v>
+      </c>
+      <c r="C296" s="41" t="s">
         <v>892</v>
       </c>
-      <c r="C296" s="41" t="s">
+      <c r="D296" s="40" t="s">
         <v>893</v>
       </c>
-      <c r="D296" s="40" t="s">
+      <c r="E296" s="42">
+        <v>1</v>
+      </c>
+      <c r="F296" s="42">
+        <v>1</v>
+      </c>
+      <c r="G296" s="42">
+        <v>1</v>
+      </c>
+      <c r="I296" s="43" t="s">
         <v>894</v>
-      </c>
-      <c r="E296" s="42">
-        <v>1</v>
-      </c>
-      <c r="F296" s="42">
-        <v>1</v>
-      </c>
-      <c r="G296" s="42">
-        <v>1</v>
-      </c>
-      <c r="I296" s="43" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="297" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -12010,14 +12026,14 @@
         <v>296</v>
       </c>
       <c r="B297" s="40" t="s">
+        <v>895</v>
+      </c>
+      <c r="C297" s="41" t="s">
         <v>896</v>
       </c>
-      <c r="C297" s="41" t="s">
+      <c r="D297" s="40" t="s">
         <v>897</v>
       </c>
-      <c r="D297" s="40" t="s">
-        <v>898</v>
-      </c>
       <c r="E297" s="42">
         <v>1</v>
       </c>
@@ -12028,7 +12044,7 @@
         <v>1</v>
       </c>
       <c r="I297" s="43" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="298" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -12036,22 +12052,22 @@
         <v>297</v>
       </c>
       <c r="B298" s="40" t="s">
+        <v>899</v>
+      </c>
+      <c r="C298" s="41" t="s">
         <v>900</v>
       </c>
-      <c r="C298" s="41" t="s">
+      <c r="E298" s="42">
+        <v>1</v>
+      </c>
+      <c r="F298" s="42">
+        <v>1</v>
+      </c>
+      <c r="G298" s="42">
+        <v>1</v>
+      </c>
+      <c r="I298" s="43" t="s">
         <v>901</v>
-      </c>
-      <c r="E298" s="42">
-        <v>1</v>
-      </c>
-      <c r="F298" s="42">
-        <v>1</v>
-      </c>
-      <c r="G298" s="42">
-        <v>1</v>
-      </c>
-      <c r="I298" s="43" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="299" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -12059,14 +12075,14 @@
         <v>298</v>
       </c>
       <c r="B299" s="40" t="s">
+        <v>902</v>
+      </c>
+      <c r="C299" s="41" t="s">
         <v>903</v>
       </c>
-      <c r="C299" s="41" t="s">
+      <c r="D299" s="40" t="s">
         <v>904</v>
       </c>
-      <c r="D299" s="40" t="s">
-        <v>905</v>
-      </c>
       <c r="E299" s="42">
         <v>1</v>
       </c>
@@ -12077,7 +12093,7 @@
         <v>1</v>
       </c>
       <c r="I299" s="43" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="300" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12085,25 +12101,25 @@
         <v>299</v>
       </c>
       <c r="B300" s="40" t="s">
+        <v>905</v>
+      </c>
+      <c r="C300" s="41" t="s">
+        <v>912</v>
+      </c>
+      <c r="D300" s="40" t="s">
         <v>906</v>
       </c>
-      <c r="C300" s="41" t="s">
-        <v>916</v>
-      </c>
-      <c r="D300" s="40" t="s">
+      <c r="E300" s="42">
+        <v>1</v>
+      </c>
+      <c r="F300" s="42">
+        <v>1</v>
+      </c>
+      <c r="G300" s="42">
+        <v>1</v>
+      </c>
+      <c r="I300" s="43" t="s">
         <v>907</v>
-      </c>
-      <c r="E300" s="42">
-        <v>1</v>
-      </c>
-      <c r="F300" s="42">
-        <v>1</v>
-      </c>
-      <c r="G300" s="42">
-        <v>1</v>
-      </c>
-      <c r="I300" s="43" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="301" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -12111,52 +12127,53 @@
         <v>300</v>
       </c>
       <c r="B301" s="46" t="s">
+        <v>908</v>
+      </c>
+      <c r="C301" s="47" t="s">
+        <v>924</v>
+      </c>
+      <c r="D301" s="46" t="s">
         <v>909</v>
       </c>
-      <c r="C301" s="32" t="s">
-        <v>914</v>
-      </c>
-      <c r="D301" s="46" t="s">
-        <v>910</v>
-      </c>
-      <c r="E301" s="33">
-        <v>1</v>
-      </c>
-      <c r="F301" s="33">
-        <v>1</v>
-      </c>
-      <c r="G301" s="33">
-        <v>1</v>
-      </c>
-      <c r="I301" s="45" t="s">
-        <v>915</v>
+      <c r="E301" s="48">
+        <v>1</v>
+      </c>
+      <c r="F301" s="48">
+        <v>1</v>
+      </c>
+      <c r="G301" s="48">
+        <v>1</v>
+      </c>
+      <c r="H301" s="48"/>
+      <c r="I301" s="47" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="302" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A302" s="19">
         <v>301</v>
       </c>
-      <c r="B302" s="44" t="s">
+      <c r="B302" s="46" t="s">
+        <v>910</v>
+      </c>
+      <c r="C302" s="47" t="s">
+        <v>926</v>
+      </c>
+      <c r="D302" s="46" t="s">
         <v>911</v>
       </c>
-      <c r="C302" s="45" t="s">
-        <v>912</v>
-      </c>
-      <c r="D302" s="44" t="s">
-        <v>913</v>
-      </c>
-      <c r="E302" s="2">
-        <v>1</v>
-      </c>
-      <c r="F302" s="2">
-        <v>1</v>
-      </c>
-      <c r="G302" s="2">
-        <v>1</v>
-      </c>
-      <c r="H302" s="2"/>
-      <c r="I302" s="43" t="s">
-        <v>644</v>
+      <c r="E302" s="48">
+        <v>1</v>
+      </c>
+      <c r="F302" s="48">
+        <v>1</v>
+      </c>
+      <c r="G302" s="48">
+        <v>1</v>
+      </c>
+      <c r="H302" s="48"/>
+      <c r="I302" s="47" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="303" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12164,13 +12181,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="44" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="C303" s="44" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="D303" s="44" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="E303" s="2">
         <v>1</v>
@@ -12191,24 +12208,51 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
+        <v>916</v>
+      </c>
+      <c r="C304" t="s">
+        <v>917</v>
+      </c>
+      <c r="D304" t="s">
+        <v>918</v>
+      </c>
+      <c r="E304">
+        <v>1</v>
+      </c>
+      <c r="F304">
+        <v>1</v>
+      </c>
+      <c r="G304">
+        <v>1</v>
+      </c>
+      <c r="I304" s="43" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A305" s="19">
+        <v>304</v>
+      </c>
+      <c r="B305" s="46" t="s">
         <v>920</v>
       </c>
-      <c r="C304" t="s">
+      <c r="C305" s="47" t="s">
         <v>921</v>
       </c>
-      <c r="D304" t="s">
+      <c r="D305" s="46" t="s">
         <v>922</v>
       </c>
-      <c r="E304">
-        <v>1</v>
-      </c>
-      <c r="F304">
-        <v>1</v>
-      </c>
-      <c r="G304">
-        <v>1</v>
-      </c>
-      <c r="I304" s="43" t="s">
+      <c r="E305" s="48">
+        <v>1</v>
+      </c>
+      <c r="F305" s="48">
+        <v>1</v>
+      </c>
+      <c r="G305" s="48">
+        <v>1</v>
+      </c>
+      <c r="H305" s="48"/>
+      <c r="I305" s="47" t="s">
         <v>923</v>
       </c>
     </row>

--- a/config_12.29/game_module_config_cjj.xlsx
+++ b/config_12.29/game_module_config_cjj.xlsx
@@ -3849,9 +3849,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">act_040_ydfl </t>
-  </si>
-  <si>
     <t>元旦福利</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3876,6 +3873,10 @@
   </si>
   <si>
     <t>1月4日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_040_ydfl</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4481,7 +4482,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="D290" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E307" sqref="E307"/>
+      <selection pane="bottomRight" activeCell="B305" sqref="B305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11008,7 +11009,7 @@
         <v>1</v>
       </c>
       <c r="I257" s="47" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -12130,7 +12131,7 @@
         <v>908</v>
       </c>
       <c r="C301" s="47" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D301" s="46" t="s">
         <v>909</v>
@@ -12146,7 +12147,7 @@
       </c>
       <c r="H301" s="48"/>
       <c r="I301" s="47" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="302" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12157,7 +12158,7 @@
         <v>910</v>
       </c>
       <c r="C302" s="47" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D302" s="46" t="s">
         <v>911</v>
@@ -12173,7 +12174,7 @@
       </c>
       <c r="H302" s="48"/>
       <c r="I302" s="47" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="303" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12234,13 +12235,13 @@
         <v>304</v>
       </c>
       <c r="B305" s="46" t="s">
+        <v>927</v>
+      </c>
+      <c r="C305" s="47" t="s">
         <v>920</v>
       </c>
-      <c r="C305" s="47" t="s">
+      <c r="D305" s="46" t="s">
         <v>921</v>
-      </c>
-      <c r="D305" s="46" t="s">
-        <v>922</v>
       </c>
       <c r="E305" s="48">
         <v>1</v>
@@ -12253,7 +12254,7 @@
       </c>
       <c r="H305" s="48"/>
       <c r="I305" s="47" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
   </sheetData>

--- a/config_12.29/game_module_config_cjj.xlsx
+++ b/config_12.29/game_module_config_cjj.xlsx
@@ -3777,14 +3777,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>双十二页签</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>12月14日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_038_s12lh_drop_ani</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3877,6 +3869,55 @@
   </si>
   <si>
     <t>act_040_ydfl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日23:59:59</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二页签→元旦活动</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4479,10 +4520,10 @@
   <dimension ref="A1:I305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D290" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C281" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B305" sqref="B305"/>
+      <selection pane="bottomRight" activeCell="C300" sqref="C300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11009,7 +11050,7 @@
         <v>1</v>
       </c>
       <c r="I257" s="47" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11545,13 +11586,13 @@
         <v>830</v>
       </c>
       <c r="E278" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F278" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G278" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" s="39" t="s">
         <v>831</v>
@@ -12010,13 +12051,13 @@
         <v>893</v>
       </c>
       <c r="E296" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F296" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G296" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" s="43" t="s">
         <v>894</v>
@@ -12036,13 +12077,13 @@
         <v>897</v>
       </c>
       <c r="E297" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F297" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G297" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" s="43" t="s">
         <v>894</v>
@@ -12056,7 +12097,7 @@
         <v>899</v>
       </c>
       <c r="C298" s="41" t="s">
-        <v>900</v>
+        <v>927</v>
       </c>
       <c r="E298" s="42">
         <v>1</v>
@@ -12067,8 +12108,8 @@
       <c r="G298" s="42">
         <v>1</v>
       </c>
-      <c r="I298" s="43" t="s">
-        <v>901</v>
+      <c r="I298" s="41" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="299" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -12076,22 +12117,22 @@
         <v>298</v>
       </c>
       <c r="B299" s="40" t="s">
+        <v>900</v>
+      </c>
+      <c r="C299" s="41" t="s">
+        <v>901</v>
+      </c>
+      <c r="D299" s="40" t="s">
         <v>902</v>
       </c>
-      <c r="C299" s="41" t="s">
-        <v>903</v>
-      </c>
-      <c r="D299" s="40" t="s">
-        <v>904</v>
-      </c>
       <c r="E299" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F299" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G299" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" s="43" t="s">
         <v>894</v>
@@ -12102,25 +12143,25 @@
         <v>299</v>
       </c>
       <c r="B300" s="40" t="s">
+        <v>903</v>
+      </c>
+      <c r="C300" s="41" t="s">
+        <v>910</v>
+      </c>
+      <c r="D300" s="40" t="s">
+        <v>904</v>
+      </c>
+      <c r="E300" s="42">
+        <v>1</v>
+      </c>
+      <c r="F300" s="42">
+        <v>1</v>
+      </c>
+      <c r="G300" s="42">
+        <v>1</v>
+      </c>
+      <c r="I300" s="43" t="s">
         <v>905</v>
-      </c>
-      <c r="C300" s="41" t="s">
-        <v>912</v>
-      </c>
-      <c r="D300" s="40" t="s">
-        <v>906</v>
-      </c>
-      <c r="E300" s="42">
-        <v>1</v>
-      </c>
-      <c r="F300" s="42">
-        <v>1</v>
-      </c>
-      <c r="G300" s="42">
-        <v>1</v>
-      </c>
-      <c r="I300" s="43" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="301" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -12128,13 +12169,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="46" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C301" s="47" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D301" s="46" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E301" s="48">
         <v>1</v>
@@ -12147,7 +12188,7 @@
       </c>
       <c r="H301" s="48"/>
       <c r="I301" s="47" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="302" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12155,13 +12196,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="46" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C302" s="47" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D302" s="46" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E302" s="48">
         <v>1</v>
@@ -12174,7 +12215,7 @@
       </c>
       <c r="H302" s="48"/>
       <c r="I302" s="47" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="303" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12182,13 +12223,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="44" t="s">
+        <v>911</v>
+      </c>
+      <c r="C303" s="44" t="s">
+        <v>912</v>
+      </c>
+      <c r="D303" s="44" t="s">
         <v>913</v>
-      </c>
-      <c r="C303" s="44" t="s">
-        <v>914</v>
-      </c>
-      <c r="D303" s="44" t="s">
-        <v>915</v>
       </c>
       <c r="E303" s="2">
         <v>1</v>
@@ -12209,25 +12250,25 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
+        <v>914</v>
+      </c>
+      <c r="C304" t="s">
+        <v>915</v>
+      </c>
+      <c r="D304" t="s">
         <v>916</v>
       </c>
-      <c r="C304" t="s">
+      <c r="E304">
+        <v>1</v>
+      </c>
+      <c r="F304">
+        <v>1</v>
+      </c>
+      <c r="G304">
+        <v>1</v>
+      </c>
+      <c r="I304" s="43" t="s">
         <v>917</v>
-      </c>
-      <c r="D304" t="s">
-        <v>918</v>
-      </c>
-      <c r="E304">
-        <v>1</v>
-      </c>
-      <c r="F304">
-        <v>1</v>
-      </c>
-      <c r="G304">
-        <v>1</v>
-      </c>
-      <c r="I304" s="43" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12235,13 +12276,13 @@
         <v>304</v>
       </c>
       <c r="B305" s="46" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C305" s="47" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D305" s="46" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E305" s="48">
         <v>1</v>
@@ -12254,7 +12295,7 @@
       </c>
       <c r="H305" s="48"/>
       <c r="I305" s="47" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
   </sheetData>

--- a/config_12.29/game_module_config_cjj.xlsx
+++ b/config_12.29/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="924">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3860,6 +3860,22 @@
   </si>
   <si>
     <t>Act_039_TYBYDROPManager</t>
+  </si>
+  <si>
+    <t>act_040_by_and_cjj_to_ddz_conduct</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏互导向斗地主</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_040_BY_AND_CJJ_TO_DDZ_CONDUCTManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4443,13 +4459,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I303"/>
+  <dimension ref="A1:I304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C284" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C299" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I307" activeCellId="1" sqref="I303 I307"/>
+      <selection pane="bottomRight" activeCell="A305" sqref="A305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12168,6 +12184,32 @@
       <c r="H303" s="2"/>
       <c r="I303" s="43" t="s">
         <v>644</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A304" s="19">
+        <v>303</v>
+      </c>
+      <c r="B304" t="s">
+        <v>920</v>
+      </c>
+      <c r="C304" t="s">
+        <v>921</v>
+      </c>
+      <c r="D304" t="s">
+        <v>922</v>
+      </c>
+      <c r="E304">
+        <v>1</v>
+      </c>
+      <c r="F304">
+        <v>1</v>
+      </c>
+      <c r="G304">
+        <v>1</v>
+      </c>
+      <c r="I304" s="43" t="s">
+        <v>923</v>
       </c>
     </row>
   </sheetData>
